--- a/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/axelle_hertig_studentfr_ch/Documents/Travail/Informatique/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\HertigA01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{68BC62B0-F278-4AE6-A7AE-8154EBE9A3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8744E0CB-7181-4043-BDDE-FA15AD4B3A31}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519B242-C981-42DE-BE3C-49ADEC643B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="3720" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Problème</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>Hertig Axelle</t>
+  </si>
+  <si>
+    <t>Diagramme de classe</t>
+  </si>
+  <si>
+    <t>Code jeu 1 aide noe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Db </t>
+  </si>
+  <si>
+    <t>modif scrum + planning</t>
+  </si>
+  <si>
+    <t>test GamePad</t>
   </si>
 </sst>
 </file>
@@ -459,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -520,30 +535,70 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -552,6 +607,46 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -564,84 +659,28 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1147,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E80" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,20 +1209,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1196,13 +1235,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1212,9 +1251,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1224,39 +1263,39 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="19">
         <v>46000</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="7">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -1267,10 +1306,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
@@ -1280,470 +1319,555 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="20">
+        <v>46006</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8">
+        <f>SUM(D12:D16)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32">
         <v>45999</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8">
-        <f>SUM(D12:D14)</f>
+      <c r="D21" s="8">
+        <f>SUM(D18:D20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>45999</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
+        <v>46000</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8">
-        <f>SUM(D16:D18)</f>
+      <c r="D25" s="8">
+        <f>SUM(D22:D24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>46000</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11">
+        <f>SUM(D17,D21,D25)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44">
+        <v>46006</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8">
-        <f>SUM(D20:D22)</f>
+      <c r="D31" s="8">
+        <f>SUM(D28:D30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>46006</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="8">
+        <f>SUM(D32:D34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>46007</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8">
+        <f>SUM(D36:D38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="10" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
-        <f>SUM(D15,D19,D23)</f>
+      <c r="D40" s="11">
+        <f>SUM(D31,D35,D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31">
-        <v>46006</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
+    <row r="41" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20">
+        <v>45662</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="8">
-        <f>SUM(D26:D28)</f>
+      <c r="D45" s="8">
+        <f>SUM(D42:D44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
-        <v>46006</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>45662</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="8">
-        <f>SUM(D30:D32)</f>
+      <c r="D49" s="8">
+        <f>SUM(D46:D48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
-        <v>46007</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32">
+        <v>45663</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="8">
-        <f>SUM(D34:D36)</f>
+      <c r="D53" s="8">
+        <f>SUM(D50:D52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="11">
-        <f>SUM(D29,D33,D37)</f>
+      <c r="D54" s="11">
+        <f>SUM(D45,D49,D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
-        <v>45662</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3" t="s">
+    <row r="55" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="20">
+        <v>45669</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="8">
-        <f>SUM(D40:D42)</f>
+      <c r="D59" s="8">
+        <f>SUM(D56:D58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="17">
-        <v>45662</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="32">
+        <v>45669</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="8">
-        <f>SUM(D44:D46)</f>
+      <c r="D63" s="8">
+        <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
-        <v>45663</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="32">
+        <v>45670</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="8">
-        <f>SUM(D48:D50)</f>
+      <c r="D67" s="8">
+        <f>SUM(D64:D66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="10" t="s">
+      <c r="B68" s="34"/>
+      <c r="C68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="11">
-        <f>SUM(D43,D47,D51)</f>
+      <c r="D68" s="11">
+        <f>SUM(D59,D63,D67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="18">
-        <v>45669</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="8">
-        <f>SUM(D54:D56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
-        <v>45669</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="8">
-        <f>SUM(D58:D60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="17">
-        <v>45670</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="8">
-        <f>SUM(D62:D64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="11">
-        <f>SUM(D57,D61,D65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="12" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="9">
-        <f>D10+D24+D38+D52+D66</f>
-        <v>240</v>
+      <c r="D70" s="9">
+        <f>D10+D26+D40+D54+D68</f>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="65">
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A6:A9"/>
@@ -1752,59 +1876,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:C14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A66:B66"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D9">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -1814,7 +1885,7 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D23">
+  <conditionalFormatting sqref="D12:D25">
     <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D12)))</formula>
     </cfRule>
@@ -1822,36 +1893,36 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D37">
+  <conditionalFormatting sqref="D28:D39">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D51">
+  <conditionalFormatting sqref="D42:D53">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D65">
+  <conditionalFormatting sqref="D56:D67">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D68)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -1863,7 +1934,7 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="3" man="1"/>
+    <brk id="27" max="3" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -1935,6 +2006,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2371,15 +2451,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2398,6 +2469,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2414,12 +2493,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\HertigA01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/axelle_hertig_studentfr_ch/Documents/Travail/Informatique/Dossier de formation/5-Modules/3ème année/Formation-Générale/306/dossier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519B242-C981-42DE-BE3C-49ADEC643B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1A3377-4F8C-42A6-8D0E-113791F5526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Problème</t>
   </si>
@@ -103,9 +103,6 @@
     </r>
   </si>
   <si>
-    <t>Férié</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creation du diagramme de séqences </t>
   </si>
   <si>
@@ -134,6 +131,15 @@
   </si>
   <si>
     <t>test GamePad</t>
+  </si>
+  <si>
+    <t>Test des fonctionnalité /amélioration</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>doc scrum</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -535,11 +541,79 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -547,10 +621,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -587,84 +657,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1192,7 +1190,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,20 +1207,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1235,13 +1233,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1251,9 +1249,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1263,185 +1261,197 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="36">
         <v>46000</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
-        <v>240</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="11">
         <f>SUM(D6:D8)</f>
-        <v>240</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>46006</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="50" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="8">
         <f>SUM(D12:D16)</f>
-        <v>300</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
-        <v>45999</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="17">
+        <v>45997</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="8">
         <f>SUM(D18:D20)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32">
+      <c r="A22" s="17">
         <v>46000</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1452,46 +1462,46 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D17,D21,D25)</f>
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44">
+      <c r="A28" s="31">
         <v>46006</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
         <v>8</v>
@@ -1502,27 +1512,27 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="A32" s="17">
         <v>46006</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3" t="s">
         <v>8</v>
@@ -1533,27 +1543,27 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32">
+      <c r="A36" s="17">
         <v>46007</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
         <v>8</v>
@@ -1564,10 +1574,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="34"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="10" t="s">
         <v>10</v>
       </c>
@@ -1577,33 +1587,33 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+      <c r="A42" s="18">
         <v>45662</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
         <v>8</v>
@@ -1614,27 +1624,27 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="32">
+      <c r="A46" s="17">
         <v>45662</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3" t="s">
         <v>8</v>
@@ -1645,27 +1655,27 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32">
+      <c r="A50" s="17">
         <v>45663</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
         <v>8</v>
@@ -1676,10 +1686,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="10" t="s">
         <v>10</v>
       </c>
@@ -1689,33 +1699,33 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="20">
+      <c r="A56" s="18">
         <v>45669</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3" t="s">
         <v>8</v>
@@ -1726,27 +1736,27 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="32">
+      <c r="A60" s="17">
         <v>45669</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3" t="s">
         <v>8</v>
@@ -1757,27 +1767,27 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="32">
+      <c r="A64" s="17">
         <v>45670</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="2"/>
       <c r="C67" s="3" t="s">
         <v>8</v>
@@ -1788,10 +1798,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="10" t="s">
         <v>10</v>
       </c>
@@ -1806,24 +1816,55 @@
       </c>
       <c r="D70" s="9">
         <f>D10+D26+D40+D54+D68</f>
-        <v>540</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
+  <mergeCells count="67">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A46:A49"/>
@@ -1834,48 +1875,19 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D9">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2006,15 +2018,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2451,6 +2454,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2469,14 +2481,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2493,4 +2497,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/axelle_hertig_studentfr_ch/Documents/Travail/Informatique/Dossier de formation/5-Modules/3ème année/Formation-Générale/306/dossier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\HertigA01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1A3377-4F8C-42A6-8D0E-113791F5526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8497FC-2455-4981-A889-A1F090CE5D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$50</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+  <si>
+    <t>Gremaud Valentin</t>
+  </si>
   <si>
     <t>Problème</t>
   </si>
@@ -103,6 +106,27 @@
     </r>
   </si>
   <si>
+    <t>Férié</t>
+  </si>
+  <si>
+    <t>Lecture du cahier des charges</t>
+  </si>
+  <si>
+    <t>Documentation initiale</t>
+  </si>
+  <si>
+    <t>Creation du planning</t>
+  </si>
+  <si>
+    <t>mise en place du Kanban avec les taches</t>
+  </si>
+  <si>
+    <t>Comme c’est le début du projet, il y a eu beaucoup de mise en place de documents à remplir, et pas forcément de travail concret. C’était un peu long, mais primordial pour avoir une vision claire du projet.</t>
+  </si>
+  <si>
+    <t>Mise en place des fichier scrum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Creation du diagramme de séqences </t>
   </si>
   <si>
@@ -112,25 +136,22 @@
     <t>code de l'interface</t>
   </si>
   <si>
-    <t>oui ça c'est bien passer, il y a eu au debut quelque blanc sur les taches a faire.</t>
-  </si>
-  <si>
-    <t>Hertig Axelle</t>
-  </si>
-  <si>
-    <t>Diagramme de classe</t>
+    <t>Creation du diagramme de classe</t>
+  </si>
+  <si>
+    <t>J’ai bien travaillé. Il reste encore beaucoup de diagrammes à réaliser, mais nous commençons doucement à coder.</t>
   </si>
   <si>
     <t>Code jeu 1 aide noe</t>
   </si>
   <si>
-    <t xml:space="preserve">Db </t>
+    <t>test GamePad</t>
   </si>
   <si>
     <t>modif scrum + planning</t>
   </si>
   <si>
-    <t>test GamePad</t>
+    <t>Creation et mise en place de la DB</t>
   </si>
   <si>
     <t>Test des fonctionnalité /amélioration</t>
@@ -139,7 +160,10 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t>doc scrum</t>
+    <t>Documentation Scrum</t>
+  </si>
+  <si>
+    <t>Le projet avance bien, j'ai bien travailler.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -541,6 +565,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -597,71 +629,83 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -670,14 +714,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -685,51 +721,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1184,13 +1176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,734 +1199,699 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H3" s="16"/>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="B4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="44"/>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50">
+        <v>45992</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <f>SUM(D6:D7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>45993</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8">
+        <f>SUM(D9:D9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(D8,D12)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>45999</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <f>SUM(D15:D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>46000</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
+        <f>SUM(D19:D22)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11">
+        <f>SUM(D18,D23)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>46006</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <f>SUM(D26:D29)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
-        <v>46000</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="6">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>46007</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="7">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8">
-        <f>SUM(D6:D8)</f>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
+        <f>SUM(D31:D33)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="10" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(D6:D8)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>46006</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8">
-        <f>SUM(D12:D16)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>45997</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8">
-        <f>SUM(D18:D20)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <v>46000</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8">
-        <f>SUM(D22:D24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="11">
-        <f>SUM(D17,D21,D25)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31">
-        <v>46006</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8">
-        <f>SUM(D28:D30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
-        <v>46006</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="8">
-        <f>SUM(D32:D34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
-        <v>46007</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="11">
+        <f>SUM(D30,D34)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
+        <v>45662</v>
+      </c>
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="8">
-        <f>SUM(D36:D38)</f>
+      <c r="A39" s="20"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8">
+        <f>SUM(D37:D39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>45662</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
+      <c r="D44" s="8">
+        <f>SUM(D41:D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>45663</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8">
+        <f>SUM(D45:D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="11">
-        <f>SUM(D31,D35,D39)</f>
+      <c r="B49" s="26"/>
+      <c r="C49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="11">
+        <f>SUM(D40,D44,D48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
-        <v>45662</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="8">
-        <f>SUM(D42:D44)</f>
+    <row r="50" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="20">
+        <v>45669</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8">
+        <f>SUM(D51:D53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
-        <v>45662</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="8">
-        <f>SUM(D46:D48)</f>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="19">
+        <v>45669</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8">
+        <f>SUM(D55:D57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
-        <v>45663</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="8">
-        <f>SUM(D50:D52)</f>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="19">
+        <v>45670</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8">
+        <f>SUM(D59:D61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="10" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="11">
-        <f>SUM(D45,D49,D53)</f>
+      <c r="B63" s="26"/>
+      <c r="C63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="11">
+        <f>SUM(D54,D58,D62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18">
-        <v>45669</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="8">
-        <f>SUM(D56:D58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="17">
-        <v>45669</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="8">
-        <f>SUM(D60:D62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17">
-        <v>45670</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="8">
-        <f>SUM(D64:D66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="11">
-        <f>SUM(D59,D63,D67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="9">
-        <f>D10+D26+D40+D54+D68</f>
-        <v>16</v>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="9">
+        <f>D13+D24+D35+D49+D63</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="59">
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A63:B63"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D9">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D26:D34 D15:D23 D6:D12">
+    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="32" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D25">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D12)))</formula>
+  <conditionalFormatting sqref="D37:D48">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D12)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D39">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D28)))</formula>
+  <conditionalFormatting sqref="D51:D62">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D28)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D53">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D67">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D65">
     <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -1946,78 +1903,12 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="27" max="3" man="1"/>
+    <brk id="25" max="3" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
-    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
-    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2454,7 +2345,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2463,24 +2354,73 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
-    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Owner xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Teams_Channel_Section_Location xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TeamsChannelId xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Invited_Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <FolderType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <CultureName xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Student_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Self_Registration_Enabled xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Teachers xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Templates xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <LMS_Mappings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <NotebookType xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Distribution_Groups xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Math_Settings xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <TaxCatchAll xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" xsi:nil="true"/>
+    <SharedWithUsers xmlns="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Groupe xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
+    <Langue xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea">FD = français voie bili</Langue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2499,10 +2439,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\HertigA01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8497FC-2455-4981-A889-A1F090CE5D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74217BC-CD44-440B-BC8B-7039AFBED87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$56</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
-  <si>
-    <t>Gremaud Valentin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Problème</t>
   </si>
@@ -112,58 +109,76 @@
     <t>Lecture du cahier des charges</t>
   </si>
   <si>
-    <t>Documentation initiale</t>
-  </si>
-  <si>
-    <t>Creation du planning</t>
-  </si>
-  <si>
-    <t>mise en place du Kanban avec les taches</t>
-  </si>
-  <si>
-    <t>Comme c’est le début du projet, il y a eu beaucoup de mise en place de documents à remplir, et pas forcément de travail concret. C’était un peu long, mais primordial pour avoir une vision claire du projet.</t>
-  </si>
-  <si>
-    <t>Mise en place des fichier scrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation du diagramme de séqences </t>
-  </si>
-  <si>
-    <t>création des maquettes</t>
-  </si>
-  <si>
-    <t>code de l'interface</t>
-  </si>
-  <si>
-    <t>Creation du diagramme de classe</t>
-  </si>
-  <si>
-    <t>J’ai bien travaillé. Il reste encore beaucoup de diagrammes à réaliser, mais nous commençons doucement à coder.</t>
-  </si>
-  <si>
-    <t>Code jeu 1 aide noe</t>
-  </si>
-  <si>
-    <t>test GamePad</t>
-  </si>
-  <si>
-    <t>modif scrum + planning</t>
-  </si>
-  <si>
-    <t>Creation et mise en place de la DB</t>
-  </si>
-  <si>
-    <t>Test des fonctionnalité /amélioration</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Documentation Scrum</t>
-  </si>
-  <si>
-    <t>Le projet avance bien, j'ai bien travailler.</t>
+    <t>Création du cahier des charges</t>
+  </si>
+  <si>
+    <t>Hertig Axelle</t>
+  </si>
+  <si>
+    <t>Création du planning</t>
+  </si>
+  <si>
+    <t>Mise en place du Kanban avec les tâches</t>
+  </si>
+  <si>
+    <t>Mise en place des fichiers Scrum</t>
+  </si>
+  <si>
+    <t>Rédaction de la documentation initiale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du diagramme de séquences  </t>
+  </si>
+  <si>
+    <t>Création des maquettes</t>
+  </si>
+  <si>
+    <t>Création du diagramme de classe</t>
+  </si>
+  <si>
+    <t>Développement du code de l’interface </t>
+  </si>
+  <si>
+    <t>Développement du code du jeu 1 (aide Noé) </t>
+  </si>
+  <si>
+    <t>Création et mise en place de la db</t>
+  </si>
+  <si>
+    <t>Réalisation des tests du GamePad</t>
+  </si>
+  <si>
+    <t>Rédaction de la documentation</t>
+  </si>
+  <si>
+    <t>Réalisation des tests des fonctionnalités et mise en œuvre des améliorations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification du planning et complétion des fichiers Scrum  </t>
+  </si>
+  <si>
+    <t>Réalisation des test</t>
+  </si>
+  <si>
+    <t>Création d'un compte mail et compte neon pour le projet</t>
+  </si>
+  <si>
+    <t>Création du websummary</t>
+  </si>
+  <si>
+    <t>Création de la presentation</t>
+  </si>
+  <si>
+    <t>Le projet progresse bien. J’ai travaillé de manière efficace et nous commençons à voir les premiers résultats concrets.</t>
+  </si>
+  <si>
+    <t>J’ai bien travaillé cette semaine. Il reste encore de nombreux diagrammes à réaliser, mais nous commençons progressivement à coder certaines parties du projet.</t>
+  </si>
+  <si>
+    <t>Comme c’était le début du projet, beaucoup de temps a été consacré à la mise en place des documents à remplir, sans forcément de travail concret. Cette étape a été un peu longue, mais essentielle pour avoir une vision claire du projet. Dans l’ensemble, je pense avoir bien travaillé.</t>
+  </si>
+  <si>
+    <t>Le projet est presque terminé. je trouve que nous avançons bien et que pour l'instant nous nous concentrons principalement sur la documentation et la préparation de la présentation. Nous revérifions également les derniers fichiers Scrum et le planning pour nous assurer que tout est en ordre. Dans l’ensemble, je considère que mon travail a été satisfaisant.</t>
   </si>
 </sst>
 </file>
@@ -504,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -565,6 +580,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -573,27 +604,51 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -605,7 +660,55 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -614,106 +717,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -721,29 +724,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1176,13 +1157,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E80" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,699 +1180,793 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H3" s="16"/>
       <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="A6" s="23">
         <v>45992</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="48"/>
+      <c r="B6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="31"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="24"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8">
         <f>SUM(D6:D7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
+        <v>45992</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
+        <f>SUM(D9:D10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>45993</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="6">
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="51" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="6">
+      <c r="C13" s="22"/>
+      <c r="D13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
+        <f>SUM(D12:D13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8">
-        <f>SUM(D9:D9)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11">
-        <f>SUM(D8,D12)</f>
+      <c r="D15" s="11">
+        <f>SUM(D8,D11,D14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>45999</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="D20" s="8">
+        <f>SUM(D17:D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
         <v>45999</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8">
-        <f>SUM(D15:D17)</f>
+      <c r="B21" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8">
+        <f>SUM(D21:D23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>46000</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="53" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8">
-        <f>SUM(D19:D22)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11">
-        <f>SUM(D18,D23)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
-        <v>46006</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="8">
+        <f>SUM(D25:D28)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11">
+        <f>SUM(D20,D24,D29)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48">
+        <v>46006</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8">
+        <f>SUM(D32:D32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>46006</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23" t="s">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="7">
+      <c r="C35" s="34"/>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8">
+        <f>SUM(D34:D37)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>46007</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="7">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="8">
+        <f>SUM(D39:D40)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="11">
+        <f>SUM(D33,D38,D41)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>46027</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="7">
+      <c r="C45" s="22"/>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="8">
+        <f>SUM(D44:D45)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
+        <v>46027</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8">
-        <f>SUM(D26:D29)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>46007</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8">
+        <f>SUM(D47:D50)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
+        <v>46028</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8">
-        <f>SUM(D31:D33)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="11">
-        <f>SUM(D30,D34)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>45662</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8">
-        <f>SUM(D37:D39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
-        <v>45662</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8">
-        <f>SUM(D41:D43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
-        <v>45663</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8">
-        <f>SUM(D45:D47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="11">
-        <f>SUM(D40,D44,D48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="20">
-        <v>45669</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="8">
+        <f>SUM(D52:D53)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="8">
-        <f>SUM(D51:D53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="19">
+      <c r="B55" s="36"/>
+      <c r="C55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="11">
+        <f>SUM(D46,D51,D54)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
         <v>45669</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="8">
-        <f>SUM(D55:D57)</f>
-        <v>0</v>
-      </c>
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
-        <v>45670</v>
-      </c>
+      <c r="A59" s="18"/>
       <c r="B59" s="21"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="7"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="8">
+        <f>SUM(D57:D59)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="7"/>
+      <c r="A61" s="17">
+        <v>45669</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="8">
+        <f>SUM(D61:D63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
+        <v>45670</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="8">
+        <f>SUM(D65:D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="8">
-        <f>SUM(D59:D61)</f>
+      <c r="B69" s="36"/>
+      <c r="C69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="11">
+        <f>SUM(D60,D64,D68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="10" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="11">
-        <f>SUM(D54,D58,D62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="9">
-        <f>D13+D24+D35+D49+D63</f>
-        <v>27</v>
+      <c r="D71" s="9">
+        <f>D15+D30+D42+D55+D69</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="64">
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D26:D34 D15:D23 D6:D12">
-    <cfRule type="containsText" dxfId="7" priority="31" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D6:D14 D17:D29 D32:D41 D44:D54">
+    <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="32" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="32" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D48">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D37)))</formula>
+  <conditionalFormatting sqref="D57:D68">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D37)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D62">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D71">
     <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D65)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -1903,12 +1978,21 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="25" max="3" man="1"/>
+    <brk id="31" max="3" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2345,15 +2429,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2421,6 +2496,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2435,14 +2518,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74217BC-CD44-440B-BC8B-7039AFBED87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3E6BF-DF2B-4170-AB39-719D8ABD74F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Problème</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>Le projet est presque terminé. je trouve que nous avançons bien et que pour l'instant nous nous concentrons principalement sur la documentation et la préparation de la présentation. Nous revérifions également les derniers fichiers Scrum et le planning pour nous assurer que tout est en ordre. Dans l’ensemble, je considère que mon travail a été satisfaisant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation de la presentaion </t>
+  </si>
+  <si>
+    <t>Rédaction websumarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation de test </t>
   </si>
 </sst>
 </file>
@@ -604,120 +613,120 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1169,10 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E80" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1180,20 +1189,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1206,13 +1215,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1222,9 +1231,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1234,13 +1243,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="51">
         <v>45992</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1333,10 +1342,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1346,33 +1355,33 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>45999</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1390,22 +1399,22 @@
       <c r="A21" s="17">
         <v>45999</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,10 +1462,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="7">
         <v>1</v>
       </c>
@@ -1473,10 +1482,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
@@ -1486,15 +1495,15 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48">
+      <c r="A32" s="33">
         <v>46006</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1530,30 +1539,30 @@
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="34"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="6">
         <v>0.5</v>
       </c>
@@ -1603,10 +1612,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1616,12 +1625,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
@@ -1690,10 +1699,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="47"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="7">
         <v>2</v>
       </c>
@@ -1743,10 +1752,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="10" t="s">
         <v>10</v>
       </c>
@@ -1756,26 +1765,34 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <v>45669</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="C57" s="22"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
-      <c r="B58" s="21"/>
+      <c r="B58" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C58" s="22"/>
-      <c r="D58" s="7"/>
+      <c r="D58" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
@@ -1791,22 +1808,30 @@
       </c>
       <c r="D60" s="8">
         <f>SUM(D57:D59)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>45669</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
-      <c r="B62" s="21"/>
+      <c r="B62" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="C62" s="22"/>
-      <c r="D62" s="7"/>
+      <c r="D62" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
@@ -1822,7 +1847,7 @@
       </c>
       <c r="D64" s="8">
         <f>SUM(D61:D63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1857,16 +1882,16 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="11">
         <f>SUM(D60,D64,D68)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1875,24 +1900,52 @@
       </c>
       <c r="D71" s="9">
         <f>D15+D30+D42+D55+D69</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A47:A51"/>
@@ -1903,47 +1956,19 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D14 D17:D29 D32:D41 D44:D54">
     <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="Terminé">
@@ -1984,15 +2009,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2429,6 +2445,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2496,14 +2521,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2518,6 +2535,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_HERTIG_AXELLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D3E6BF-DF2B-4170-AB39-719D8ABD74F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE113A-B462-492F-BB98-4DD1F86AB538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Problème</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t xml:space="preserve">Réalisation de test </t>
+  </si>
+  <si>
+    <t>Entrainement presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai beaoucoup aimé le projet, je trouve que on a bien travailler et que on était assez efficace et on arrivait bien a separé nos taches </t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -524,11 +530,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -613,6 +628,54 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -621,6 +684,54 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -633,100 +744,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1190,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1189,20 +1207,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1215,13 +1233,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1231,9 +1249,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1243,13 +1261,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+      <c r="A6" s="23">
         <v>45992</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6">
         <v>2</v>
       </c>
@@ -1342,10 +1360,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1355,33 +1373,33 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>45999</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1399,22 +1417,22 @@
       <c r="A21" s="17">
         <v>45999</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1462,10 +1480,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="7">
         <v>1</v>
       </c>
@@ -1482,10 +1500,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
@@ -1495,15 +1513,15 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="48">
         <v>46006</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1539,30 +1557,30 @@
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="41"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="6">
         <v>0.5</v>
       </c>
@@ -1612,10 +1630,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1625,12 +1643,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
@@ -1699,10 +1717,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="7">
         <v>2</v>
       </c>
@@ -1752,10 +1770,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="10" t="s">
         <v>10</v>
       </c>
@@ -1765,12 +1783,12 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
@@ -1854,9 +1872,13 @@
       <c r="A65" s="17">
         <v>45670</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
@@ -1878,21 +1900,27 @@
       </c>
       <c r="D68" s="8">
         <f>SUM(D65:D67)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="11">
         <f>SUM(D60,D64,D68)</f>
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="52"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C71" s="12" t="s">
@@ -1900,52 +1928,25 @@
       </c>
       <c r="D71" s="9">
         <f>D15+D30+D42+D55+D69</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+  <mergeCells count="65">
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A47:A51"/>
@@ -1956,19 +1957,47 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D14 D17:D29 D32:D41 D44:D54">
     <cfRule type="containsText" dxfId="5" priority="31" operator="containsText" text="Terminé">
@@ -2446,15 +2475,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <AppVersion xmlns="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xsi:nil="true"/>
@@ -2520,6 +2540,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
@@ -2540,14 +2569,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2562,4 +2583,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>